--- a/dam/backend/datablau-dataasset-server/src/main/resources/resources/ddc/data_flow_template.xlsx
+++ b/dam/backend/datablau-dataasset-server/src/main/resources/resources/ddc/data_flow_template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>系统名称</t>
   </si>
@@ -45,7 +45,7 @@
     <t>逻辑实体编码</t>
   </si>
   <si>
-    <t>数据权限（系统-实体）</t>
+    <t>数据操作</t>
   </si>
   <si>
     <t>是否分发源头</t>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>系统编码</t>
   </si>
 </sst>
 </file>
@@ -70,7 +67,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +86,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +370,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,12 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,121 +555,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,10 +684,10 @@
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,13 +696,7 @@
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -830,7 +808,7 @@
     <tableColumn id="2" name="业务对象编码"/>
     <tableColumn id="10" name="逻辑实体名称"/>
     <tableColumn id="11" name="逻辑实体编码"/>
-    <tableColumn id="3" name="数据权限（系统-实体）" dataDxfId="1"/>
+    <tableColumn id="3" name="数据操作" dataDxfId="1"/>
     <tableColumn id="4" name="是否分发源头" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("U",F2)),"否","")</calculatedColumnFormula>
     </tableColumn>
@@ -1102,7 +1080,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1202,7 +1180,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1227,37 +1205,37 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
     </row>
